--- a/IPCV7testing/IPC_v7_message.xlsx
+++ b/IPCV7testing/IPC_v7_message.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,34 +101,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
+    <t>对比度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱和度调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐度调节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光圈模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光圈灵敏度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快门模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快门下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc_irisauto</t>
+  </si>
+  <si>
+    <t>dc_irismanual</t>
+  </si>
+  <si>
+    <t>p_irismanual</t>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1/7.5</t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>1/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60hz</t>
+  </si>
+  <si>
+    <t>50hz</t>
   </si>
 </sst>
 </file>
@@ -186,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -195,6 +287,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -765,21 +858,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B4" sqref="B4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
+    <col min="5" max="5" width="17.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -805,7 +898,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="6"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -835,7 +928,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -854,39 +947,34 @@
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -896,10 +984,23 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -909,10 +1010,23 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -922,10 +1036,20 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -935,10 +1059,23 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -948,10 +1085,23 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -961,10 +1111,20 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -974,23 +1134,72 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1000,7 +1209,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1013,7 +1222,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1026,7 +1235,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1039,7 +1248,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/IPCV7testing/IPC_v7_message.xlsx
+++ b/IPCV7testing/IPC_v7_message.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,22 @@
   </si>
   <si>
     <t>50hz</t>
+  </si>
+  <si>
+    <t>增益上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -858,10 +874,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1065,16 +1081,16 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1090,17 +1106,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1115,15 +1131,18 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1140,48 +1159,22 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
@@ -1189,30 +1182,66 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1339,6 +1368,19 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPCV7testing/IPC_v7_message.xlsx
+++ b/IPCV7testing/IPC_v7_message.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.255.248.207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>光圈灵敏度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,110 +125,137 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>防闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dc_irisauto</t>
+  </si>
+  <si>
+    <t>dc_irismanual</t>
+  </si>
+  <si>
+    <t>p_irismanual</t>
+  </si>
+  <si>
+    <t>1/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1/7.5</t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>1/15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60hz</t>
+  </si>
+  <si>
+    <t>50hz</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.2.207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益上限(自动模式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益等级(手动模式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光圈灵敏度（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光圈大小（手动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快门等级（手动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快门下限（自动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>快门模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快门下限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>auto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>manual</t>
-  </si>
-  <si>
-    <t>manual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc_irisauto</t>
-  </si>
-  <si>
-    <t>dc_irismanual</t>
-  </si>
-  <si>
-    <t>p_irismanual</t>
-  </si>
-  <si>
-    <t>1/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>1/7.5</t>
-  </si>
-  <si>
-    <t>1/10</t>
-  </si>
-  <si>
-    <t>1/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/240</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/480</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/8000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60hz</t>
-  </si>
-  <si>
-    <t>50hz</t>
-  </si>
-  <si>
-    <t>增益上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/7.6</t>
   </si>
 </sst>
 </file>
@@ -259,12 +278,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -294,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -304,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -611,7 +637,7 @@
   <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -874,17 +900,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="3" customWidth="1"/>
     <col min="5" max="5" width="17.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -893,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
@@ -921,7 +948,7 @@
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -951,17 +978,17 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -979,17 +1006,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
+      <c r="C4" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1005,17 +1032,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1031,17 +1058,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1058,13 +1085,13 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1081,16 +1108,16 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1102,21 +1129,21 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>8</v>
+      <c r="A9" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1128,21 +1155,21 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>9</v>
+      <c r="A10" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1154,18 +1181,21 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1177,70 +1207,44 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q12" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
-        <v>12</v>
+      <c r="A13" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1252,35 +1256,92 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1381,6 +1442,45 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPCV7testing/IPC_v7_message.xlsx
+++ b/IPCV7testing/IPC_v7_message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="message" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.2.207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增益上限(自动模式)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>1/7.6</t>
+  </si>
+  <si>
+    <t>10.255.248.207</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -902,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14:P15"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>43</v>
@@ -1130,11 +1130,11 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
@@ -1182,11 +1182,11 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>25</v>
@@ -1208,11 +1208,11 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -1234,11 +1234,11 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1257,11 +1257,11 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>35</v>
@@ -1292,11 +1292,11 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>35</v>
@@ -1305,7 +1305,7 @@
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>38</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
